--- a/Lab4.xlsx
+++ b/Lab4.xlsx
@@ -200,13 +200,13 @@
     <t xml:space="preserve">Рассчет стоимости второго заказа за день, сумма заказа &lt; 50р. (итоговая стоимость не изменяется)</t>
   </si>
   <si>
-    <t xml:space="preserve">Major №4</t>
+    <t xml:space="preserve">Critical №4</t>
   </si>
   <si>
     <t xml:space="preserve">Рассчет стоимости второго заказа за день, сумма заказа &gt; 50р. (итоговая стоимость не изменяется)</t>
   </si>
   <si>
-    <t xml:space="preserve">Major №5</t>
+    <t xml:space="preserve">Critical №5</t>
   </si>
   <si>
     <t xml:space="preserve">Изменение стоимости при изменении поля "Количество"</t>
@@ -932,7 +932,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
